--- a/2 semester/LogicBase/WorkSpace/Lab4/Calc Ivan.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab4/Calc Ivan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limbo\OneDrive\Desktop\work\лабораторные\InstituteRep\2 semester\LogicBase\WorkSpace\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D723D9-3C6E-4FAD-BE55-8CD53C57A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD037D-D51C-4B12-8A16-9817F7526B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,14 +628,26 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -643,20 +655,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB70" sqref="AB70"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="126" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,38 +979,38 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="AA1" s="30" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="AA1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30" t="s">
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30" t="s">
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="30"/>
+      <c r="AF1" s="25"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1025,7 +1025,7 @@
       <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1"/>
@@ -1080,18 +1080,18 @@
       <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30" t="s">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30">
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25">
         <v>-10</v>
       </c>
-      <c r="AF2" s="30"/>
+      <c r="AF2" s="25"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1106,7 +1106,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="1"/>
       <c r="I3" s="5">
         <v>1</v>
@@ -1251,35 +1251,35 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="14">
         <v>1</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="14">
         <v>0</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="14">
         <v>0</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
       <c r="X5" s="14">
         <v>0</v>
       </c>
@@ -1299,29 +1299,29 @@
       <c r="B7">
         <v>-77.61</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="32" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="1"/>
@@ -1376,21 +1376,21 @@
       <c r="Z8" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="30" t="s">
+      <c r="AA8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30" t="s">
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30" t="s">
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AF8" s="30"/>
+      <c r="AF8" s="25"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G9" s="29"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="1"/>
       <c r="I9" s="5">
         <v>0</v>
@@ -1517,35 +1517,35 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="14">
         <v>0</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
       <c r="T11" s="14">
         <v>0</v>
       </c>
-      <c r="U11" s="25" t="s">
+      <c r="U11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
       <c r="X11" s="14">
         <v>0</v>
       </c>
@@ -1554,29 +1554,29 @@
       <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="32" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="1"/>
@@ -1631,23 +1631,23 @@
       <c r="Z14" t="s">
         <v>23</v>
       </c>
-      <c r="AA14" s="30" t="s">
+      <c r="AA14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30" t="s">
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="32" t="s">
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" s="30"/>
+      <c r="AF14" s="25"/>
     </row>
     <row r="15" spans="1:32" ht="30" x14ac:dyDescent="0.4">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
       <c r="I15" s="5">
         <v>1</v>
@@ -1776,63 +1776,63 @@
     <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="14">
         <v>1</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="14">
         <v>1</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
       <c r="T17" s="14">
         <v>0</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="U17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
       <c r="X17" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
     </row>
     <row r="20" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H20" s="1"/>
@@ -1887,21 +1887,21 @@
       <c r="Z20" t="s">
         <v>23</v>
       </c>
-      <c r="AA20" s="30" t="s">
+      <c r="AA20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30" t="s">
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30">
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25">
         <v>10</v>
       </c>
-      <c r="AF20" s="30"/>
+      <c r="AF20" s="25"/>
     </row>
     <row r="21" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G21" s="29"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="1"/>
       <c r="I21" s="5">
         <v>0</v>
@@ -2030,35 +2030,35 @@
     <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="14">
         <v>0</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
       <c r="P23" s="14">
         <v>1</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
       <c r="T23" s="14">
         <v>0</v>
       </c>
-      <c r="U23" s="25" t="s">
+      <c r="U23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
       <c r="X23" s="14">
         <v>0</v>
       </c>
@@ -2071,38 +2071,38 @@
         <v>57</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="AA25" s="30" t="s">
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="AA25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30" t="s">
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30" t="s">
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF25" s="30"/>
+      <c r="AF25" s="25"/>
     </row>
     <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
@@ -2112,7 +2112,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="21"/>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="1"/>
@@ -2167,18 +2167,18 @@
       <c r="Z26" t="s">
         <v>23</v>
       </c>
-      <c r="AA26" s="30" t="s">
+      <c r="AA26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30" t="s">
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="32" t="s">
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AF26" s="30"/>
+      <c r="AF26" s="25"/>
     </row>
     <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -2188,7 +2188,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="34"/>
+      <c r="G27" s="28"/>
       <c r="H27" s="1"/>
       <c r="I27" s="5">
         <v>1</v>
@@ -2322,63 +2322,63 @@
     <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
       <c r="L29" s="14">
         <v>1</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
       <c r="P29" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
       <c r="T29" s="14">
         <v>0</v>
       </c>
-      <c r="U29" s="25" t="s">
+      <c r="U29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
       <c r="X29" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
     </row>
     <row r="32" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="32" t="s">
         <v>73</v>
       </c>
       <c r="H32" s="1"/>
@@ -2430,15 +2430,15 @@
       <c r="X32" s="4">
         <v>0</v>
       </c>
-      <c r="AA32" s="30" t="s">
+      <c r="AA32" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
     </row>
     <row r="33" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G33" s="29"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="1"/>
       <c r="I33" s="5">
         <v>0</v>
@@ -2546,63 +2546,63 @@
     <row r="35" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="14">
         <v>1</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M35" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
       <c r="P35" s="14">
         <v>0</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="14">
         <v>1</v>
       </c>
-      <c r="U35" s="25" t="s">
+      <c r="U35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
       <c r="X35" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
     </row>
     <row r="38" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="32" t="s">
         <v>76</v>
       </c>
       <c r="H38" s="1"/>
@@ -2654,15 +2654,15 @@
       <c r="X38" s="4">
         <v>0</v>
       </c>
-      <c r="AA38" s="30" t="s">
+      <c r="AA38" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
     </row>
     <row r="39" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G39" s="29"/>
+      <c r="G39" s="33"/>
       <c r="H39" s="1"/>
       <c r="I39" s="5">
         <v>1</v>
@@ -2776,63 +2776,63 @@
     <row r="41" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="14">
         <v>0</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
       <c r="P41" s="14">
         <v>1</v>
       </c>
-      <c r="Q41" s="25" t="s">
+      <c r="Q41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
       <c r="T41" s="14">
         <v>1</v>
       </c>
-      <c r="U41" s="25" t="s">
+      <c r="U41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
       <c r="X41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
     </row>
     <row r="44" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="32" t="s">
         <v>78</v>
       </c>
       <c r="H44" s="1"/>
@@ -2887,21 +2887,21 @@
       <c r="Z44" t="s">
         <v>23</v>
       </c>
-      <c r="AA44" s="30" t="s">
+      <c r="AA44" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30" t="s">
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30" t="s">
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AF44" s="30"/>
+      <c r="AF44" s="25"/>
     </row>
     <row r="45" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G45" s="29"/>
+      <c r="G45" s="33"/>
       <c r="H45" s="1"/>
       <c r="I45" s="5">
         <v>0</v>
@@ -3030,35 +3030,35 @@
     <row r="47" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
       <c r="L47" s="14">
         <v>0</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="M47" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
       <c r="P47" s="14">
         <v>1</v>
       </c>
-      <c r="Q47" s="25" t="s">
+      <c r="Q47" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
       <c r="T47" s="14">
         <v>0</v>
       </c>
-      <c r="U47" s="25" t="s">
+      <c r="U47" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
       <c r="X47" s="14">
         <v>0</v>
       </c>
@@ -3076,38 +3076,38 @@
       <c r="E50" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="AA50" s="30" t="s">
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="AA50" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30" t="s">
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30" t="s">
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF50" s="30"/>
+      <c r="AF50" s="25"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3122,7 +3122,7 @@
       <c r="E51" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="27" t="s">
         <v>89</v>
       </c>
       <c r="H51" s="1"/>
@@ -3177,18 +3177,18 @@
       <c r="Z51" t="s">
         <v>23</v>
       </c>
-      <c r="AA51" s="30" t="s">
+      <c r="AA51" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30" t="s">
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="32" t="s">
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AF51" s="30"/>
+      <c r="AF51" s="25"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
@@ -3197,7 +3197,7 @@
       <c r="E52" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="34"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="1"/>
       <c r="I52" s="5">
         <v>1</v>
@@ -3330,63 +3330,63 @@
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G54" s="12"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="25" t="s">
+      <c r="I54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
       <c r="L54" s="14">
         <v>1</v>
       </c>
-      <c r="M54" s="25" t="s">
+      <c r="M54" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
       <c r="P54" s="14">
         <v>0</v>
       </c>
-      <c r="Q54" s="25" t="s">
+      <c r="Q54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="14">
         <v>0</v>
       </c>
-      <c r="U54" s="25" t="s">
+      <c r="U54" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
       <c r="X54" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G56" s="27" t="s">
+      <c r="G56" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="32" t="s">
         <v>99</v>
       </c>
       <c r="H57" s="1"/>
@@ -3438,15 +3438,15 @@
       <c r="X57" s="4">
         <v>1</v>
       </c>
-      <c r="AA57" s="30" t="s">
+      <c r="AA57" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G58" s="29"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="1"/>
       <c r="I58" s="5">
         <v>0</v>
@@ -3558,63 +3558,63 @@
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G60" s="12"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="25" t="s">
+      <c r="I60" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
       <c r="L60" s="14">
         <v>1</v>
       </c>
-      <c r="M60" s="25" t="s">
+      <c r="M60" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
       <c r="P60" s="14">
         <v>0</v>
       </c>
-      <c r="Q60" s="25" t="s">
+      <c r="Q60" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
       <c r="T60" s="14">
         <v>1</v>
       </c>
-      <c r="U60" s="25" t="s">
+      <c r="U60" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
       <c r="X60" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="26"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="32" t="s">
         <v>101</v>
       </c>
       <c r="H63" s="1"/>
@@ -3666,15 +3666,15 @@
       <c r="X63" s="4">
         <v>1</v>
       </c>
-      <c r="AA63" s="30" t="s">
+      <c r="AA63" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G64" s="29"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="1"/>
       <c r="I64" s="5">
         <v>1</v>
@@ -3795,63 +3795,63 @@
     <row r="66" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G66" s="12"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="25" t="s">
+      <c r="I66" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
       <c r="L66" s="14">
         <v>1</v>
       </c>
-      <c r="M66" s="25" t="s">
+      <c r="M66" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
       <c r="P66" s="14">
         <v>1</v>
       </c>
-      <c r="Q66" s="25" t="s">
+      <c r="Q66" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
       <c r="T66" s="14">
         <v>1</v>
       </c>
-      <c r="U66" s="25" t="s">
+      <c r="U66" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
       <c r="X66" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="26"/>
     </row>
     <row r="69" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="32" t="s">
         <v>103</v>
       </c>
       <c r="H69" s="1"/>
@@ -3906,21 +3906,21 @@
       <c r="Z69" t="s">
         <v>23</v>
       </c>
-      <c r="AA69" s="30" t="s">
+      <c r="AA69" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30" t="s">
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AD69" s="30"/>
-      <c r="AE69" s="30" t="s">
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AF69" s="30"/>
+      <c r="AF69" s="25"/>
     </row>
     <row r="70" spans="7:32" x14ac:dyDescent="0.25">
-      <c r="G70" s="29"/>
+      <c r="G70" s="33"/>
       <c r="H70" s="1"/>
       <c r="I70" s="5">
         <v>0</v>
@@ -4049,122 +4049,63 @@
     <row r="72" spans="7:32" x14ac:dyDescent="0.25">
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
-      <c r="I72" s="25" t="s">
+      <c r="I72" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
       <c r="L72" s="14">
         <v>0</v>
       </c>
-      <c r="M72" s="25" t="s">
+      <c r="M72" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
       <c r="P72" s="14">
         <v>1</v>
       </c>
-      <c r="Q72" s="25" t="s">
+      <c r="Q72" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
       <c r="T72" s="14">
         <v>0</v>
       </c>
-      <c r="U72" s="25" t="s">
+      <c r="U72" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V72" s="26"/>
-      <c r="W72" s="26"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
       <c r="X72" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="G1:X1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="G7:X7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="G13:X13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="G19:X19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="G25:X25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="G31:X31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="G37:X37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G43:X43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="U72:W72"/>
+    <mergeCell ref="G68:X68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="AE69:AF69"/>
+    <mergeCell ref="AE70:AF70"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="AA63:AD63"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="AA57:AD57"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="G62:X62"/>
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="M54:O54"/>
     <mergeCell ref="Q54:S54"/>
@@ -4179,28 +4120,87 @@
     <mergeCell ref="G50:X50"/>
     <mergeCell ref="AA50:AB50"/>
     <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="AA63:AD63"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="AA57:AD57"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="G62:X62"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="U72:W72"/>
-    <mergeCell ref="G68:X68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="AA69:AB69"/>
-    <mergeCell ref="AC69:AD69"/>
-    <mergeCell ref="AE69:AF69"/>
-    <mergeCell ref="AE70:AF70"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G43:X43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="G37:X37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="G31:X31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="G25:X25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="G19:X19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="G13:X13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="G7:X7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="G1:X1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
